--- a/Data/Optimised_Networks/k_fold_offline 3_20-20-12_15_0.001_50.xlsx
+++ b/Data/Optimised_Networks/k_fold_offline 3_20-20-12_15_0.001_50.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3017272997991363</v>
+        <v>0.289868091758042</v>
       </c>
       <c r="C2" t="n">
-        <v>742.2744232850048</v>
+        <v>755.9227542411047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4203352609000977</v>
+        <v>0.3902145607312593</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5273079313411948</v>
+        <v>0.5031359690935164</v>
       </c>
       <c r="C3" t="n">
-        <v>724.0263092932319</v>
+        <v>751.9608047345432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8394849646406761</v>
+        <v>0.7796734834455983</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7546781206041004</v>
+        <v>0.7166449271449766</v>
       </c>
       <c r="C4" t="n">
-        <v>723.2830920844449</v>
+        <v>767.2628011329323</v>
       </c>
       <c r="D4" t="n">
-        <v>1.253960573073359</v>
+        <v>1.166352119716002</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9810632128617003</v>
+        <v>0.9295013487001647</v>
       </c>
       <c r="C5" t="n">
-        <v>758.1164991204989</v>
+        <v>818.9316563189582</v>
       </c>
       <c r="D5" t="n">
-        <v>1.654419446727597</v>
+        <v>1.545307469316052</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.20142452047372</v>
+        <v>1.139322267433595</v>
       </c>
       <c r="C6" t="n">
-        <v>890.3746860852857</v>
+        <v>966.9633482000659</v>
       </c>
       <c r="D6" t="n">
-        <v>2.021346487978198</v>
+        <v>1.903302128640463</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.407898169378525</v>
+        <v>1.341394295912991</v>
       </c>
       <c r="C7" t="n">
-        <v>1203.821942296091</v>
+        <v>1287.595053324119</v>
       </c>
       <c r="D7" t="n">
-        <v>2.335735815987205</v>
+        <v>2.222332276097884</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.567533312367493</v>
+        <v>1.510930495351759</v>
       </c>
       <c r="C8" t="n">
-        <v>2295.439122007004</v>
+        <v>2386.386811169233</v>
       </c>
       <c r="D8" t="n">
-        <v>2.559296220085416</v>
+        <v>2.460291498130882</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.704544931392038</v>
+        <v>1.659020694850057</v>
       </c>
       <c r="C9" t="n">
-        <v>3682.839965722225</v>
+        <v>3793.411240478143</v>
       </c>
       <c r="D9" t="n">
-        <v>2.755809335737224</v>
+        <v>2.673323907176926</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.837694108987278</v>
+        <v>1.798669119685093</v>
       </c>
       <c r="C10" t="n">
-        <v>5113.175741824538</v>
+        <v>5235.183673126139</v>
       </c>
       <c r="D10" t="n">
-        <v>2.943810653998076</v>
+        <v>2.87172238092689</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.9696758108152</v>
+        <v>1.930246451786539</v>
       </c>
       <c r="C11" t="n">
-        <v>6559.007210482181</v>
+        <v>6679.052525725829</v>
       </c>
       <c r="D11" t="n">
-        <v>3.128498016077892</v>
+        <v>3.053766498522747</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.101308108235686</v>
+        <v>2.056414588565264</v>
       </c>
       <c r="C12" t="n">
-        <v>8008.783748183669</v>
+        <v>8116.984986900119</v>
       </c>
       <c r="D12" t="n">
-        <v>3.312056634953988</v>
+        <v>3.224302781906804</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.232813398790056</v>
+        <v>2.178453182279788</v>
       </c>
       <c r="C13" t="n">
-        <v>9460.018109348972</v>
+        <v>9548.713258121832</v>
       </c>
       <c r="D13" t="n">
-        <v>3.495167952470113</v>
+        <v>3.386201390254388</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2418093368877698</v>
+        <v>0.2484968485736183</v>
       </c>
       <c r="C14" t="n">
-        <v>768.2844899019585</v>
+        <v>721.8435235564395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2997162555883528</v>
+        <v>0.3037946416839439</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4063487648242423</v>
+        <v>0.4195507413408573</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9854504875559</v>
+        <v>660.920216952775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5980700926689759</v>
+        <v>0.6059855916199204</v>
       </c>
       <c r="E15" t="n">
         <v>300</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5705528636568863</v>
+        <v>0.5901842529977368</v>
       </c>
       <c r="C16" t="n">
-        <v>740.392338672209</v>
+        <v>600.6430887397348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8948211993731543</v>
+        <v>0.9064817365971555</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7339925979965081</v>
+        <v>0.7597551082734484</v>
       </c>
       <c r="C17" t="n">
-        <v>728.4282391939964</v>
+        <v>541.7170174480702</v>
       </c>
       <c r="D17" t="n">
-        <v>1.187940492560074</v>
+        <v>1.202877476969729</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8962998609002039</v>
+        <v>0.9277859665759081</v>
       </c>
       <c r="C18" t="n">
-        <v>718.9346955727869</v>
+        <v>485.1091248421858</v>
       </c>
       <c r="D18" t="n">
-        <v>1.475791345754115</v>
+        <v>1.493182773685446</v>
       </c>
       <c r="E18" t="n">
         <v>300</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.056230759512156</v>
+        <v>1.092568508112656</v>
       </c>
       <c r="C19" t="n">
-        <v>714.2256663786814</v>
+        <v>432.2094025830293</v>
       </c>
       <c r="D19" t="n">
-        <v>1.753286397940517</v>
+        <v>1.771264262500755</v>
       </c>
       <c r="E19" t="n">
         <v>300</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.211303006588712</v>
+        <v>1.25009012906817</v>
       </c>
       <c r="C20" t="n">
-        <v>721.7842035123147</v>
+        <v>389.9052463564558</v>
       </c>
       <c r="D20" t="n">
-        <v>2.00914125625657</v>
+        <v>2.021409767932788</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.359740829300591</v>
+        <v>1.397892181738968</v>
       </c>
       <c r="C21" t="n">
-        <v>751.0443874960026</v>
+        <v>369.6577035462283</v>
       </c>
       <c r="D21" t="n">
-        <v>2.235492940547259</v>
+        <v>2.231589880706641</v>
       </c>
       <c r="E21" t="n">
         <v>300</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.498333993581114</v>
+        <v>1.532684994684642</v>
       </c>
       <c r="C22" t="n">
-        <v>820.9700830146978</v>
+        <v>391.8967594777041</v>
       </c>
       <c r="D22" t="n">
-        <v>2.41931987511417</v>
+        <v>2.385148094902187</v>
       </c>
       <c r="E22" t="n">
         <v>300</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.624605420242572</v>
+        <v>1.653398748027002</v>
       </c>
       <c r="C23" t="n">
-        <v>960.3584057655148</v>
+        <v>481.8981413443873</v>
       </c>
       <c r="D23" t="n">
-        <v>2.550561043369339</v>
+        <v>2.475728721358231</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.734446921186208</v>
+        <v>1.760144514691489</v>
       </c>
       <c r="C24" t="n">
-        <v>1226.342760047488</v>
+        <v>687.1533143439442</v>
       </c>
       <c r="D24" t="n">
-        <v>2.614843588285593</v>
+        <v>2.504123775149637</v>
       </c>
       <c r="E24" t="n">
         <v>300</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.833721663837894</v>
+        <v>1.860047883248037</v>
       </c>
       <c r="C25" t="n">
-        <v>1606.781420044491</v>
+        <v>996.8193469060925</v>
       </c>
       <c r="D25" t="n">
-        <v>2.638656896582763</v>
+        <v>2.504480195888719</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
